--- a/data/s_vals/2024/ortiz_luis.xlsx
+++ b/data/s_vals/2024/ortiz_luis.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.32444174274583</v>
+        <v>1.459612070389937</v>
       </c>
       <c r="C2" t="n">
-        <v>9.378199737598186</v>
+        <v>114.8270160096505</v>
       </c>
       <c r="D2" t="n">
-        <v>2.295182259495947</v>
+        <v>26.21740644021617</v>
       </c>
       <c r="E2" t="n">
-        <v>1.975618444095408</v>
+        <v>645.3272768299601</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>15.97344218393537</v>
+        <v>787.8313113502167</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.52218429426656</v>
+        <v>0.6753301551942219</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2000879064671799</v>
+        <v>0.04240448674262143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.046857248402902</v>
+        <v>10.18345676446982</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6629759848332026</v>
+        <v>0.127881588408715</v>
       </c>
       <c r="C4" t="n">
-        <v>134.2289599913515</v>
+        <v>225321.0684179339</v>
       </c>
       <c r="D4" t="n">
-        <v>5.22600755797499</v>
+        <v>337.1190423067083</v>
       </c>
       <c r="E4" t="n">
-        <v>4.944605425722401</v>
+        <v>616238.5361209477</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>145.0625489598821</v>
+        <v>841896.8514627768</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/ortiz_luis.xlsx
+++ b/data/s_vals/2024/ortiz_luis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>787.8313113502167</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>10.18345676446982</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>841896.8514627768</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/ortiz_luis.xlsx
+++ b/data/s_vals/2024/ortiz_luis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -494,9 +489,6 @@
       <c r="G2" t="n">
         <v>787.8313113502167</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -522,9 +514,6 @@
       <c r="G3" t="n">
         <v>10.18345676446982</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -549,9 +538,6 @@
       </c>
       <c r="G4" t="n">
         <v>841896.8514627768</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/ortiz_luis.xlsx
+++ b/data/s_vals/2024/ortiz_luis.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.459612070389937</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C2" t="n">
-        <v>114.8270160096505</v>
+        <v>86.29678392075563</v>
       </c>
       <c r="D2" t="n">
-        <v>26.21740644021617</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E2" t="n">
-        <v>645.3272768299601</v>
+        <v>246.9852506941017</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>787.8313113502167</v>
+        <v>351.771379772349</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,25 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6753301551942219</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04240448674262143</v>
+        <v>0.05231270169004087</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E3" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>10.18345676446982</v>
+        <v>7.975193050910589</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.127881588408715</v>
+        <v>0.1554434735375247</v>
       </c>
       <c r="C4" t="n">
-        <v>225321.0684179339</v>
+        <v>87981.0709163148</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1190423067083</v>
+        <v>157.8057217802531</v>
       </c>
       <c r="E4" t="n">
-        <v>616238.5361209477</v>
+        <v>71517.89157740913</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>841896.8514627768</v>
+        <v>159656.9236589777</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
